--- a/hirlevel_10/fogaszat_szoveg.xlsx
+++ b/hirlevel_10/fogaszat_szoveg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_kidob\_kidob\AI_hirlevel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6012046-D368-4799-B55F-ADFAA7F53260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21C9943-3D02-4D4B-9F03-73029B53DE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>FOGFEHÉRÍTÉS</t>
   </si>
@@ -132,17 +132,32 @@
   <si>
     <t>bla bla</t>
   </si>
+  <si>
+    <t>Cím</t>
+  </si>
+  <si>
+    <t>Szöveg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -166,9 +181,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -451,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -479,75 +498,83 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
     </row>

--- a/hirlevel_10/fogaszat_szoveg.xlsx
+++ b/hirlevel_10/fogaszat_szoveg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_kidob\_kidob\AI_hirlevel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21C9943-3D02-4D4B-9F03-73029B53DE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D907A2-3F8A-4143-ABEF-8F97F7C6889F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -472,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -482,28 +482,28 @@
     <col min="2" max="2" width="71.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
